--- a/src/test/java/Utility/testdata.xlsx
+++ b/src/test/java/Utility/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dakav\IdeaProjects\Testng_360Framework\src\test\java\Utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{4AB456F2-8D62-4000-95B9-5CE2EE26669F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{8EA73442-38B1-4F30-BA9D-A8F65643F8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -46,22 +46,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Demo123456</t>
-  </si>
-  <si>
     <t>Test123456$</t>
   </si>
   <si>
-    <t>abcd</t>
-  </si>
-  <si>
-    <t>efgh</t>
-  </si>
-  <si>
     <t>Demo12</t>
-  </si>
-  <si>
-    <t>Demo123</t>
   </si>
   <si>
     <t xml:space="preserve">HTM </t>
@@ -446,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,42 +456,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -526,13 +482,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -551,7 +507,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
